--- a/movimientos.xlsx
+++ b/movimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\django\neri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B6A93D-500F-4D34-8E5B-CC40241DB4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8EC6EC-6B1B-4BD6-A8AF-D2ED8A72679A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14617" uniqueCount="2698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14833" uniqueCount="2739">
   <si>
     <t>Abril</t>
   </si>
@@ -8258,6 +8258,130 @@
   </si>
   <si>
     <t>Resp. Taller / Neri / Compras</t>
+  </si>
+  <si>
+    <t>Se debe gestionar incorporación de luces de emergencia.
+Considerar que los mismos deben estar colocados en puertas de acceso / salida de emergencia y lugares que atañan riesgos (ej.: escaleras).</t>
+  </si>
+  <si>
+    <t>Hernandez / Peralata</t>
+  </si>
+  <si>
+    <t>Si bien se cuenta con extintores, los mismos no se encuentran en condiciones (vencidos). Se debería gestionar el reemplazo del mismo</t>
+  </si>
+  <si>
+    <t>Los lugares en los que se encuentran los extintores se encuentran obstruidos por objetos. Se deberá liberar el sector frontal (1 mts.). Considerar que frente a los mismos, NO se deben almacenar objetos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escalera de acceso a oficina: Se deviera analizar posibilidad de acondicionamiento según características establecidas por Res. SRT 231/96. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se debiera considerar la protección de escalera en parte superior (interior de oficina) mediante colocación de barandas. </t>
+  </si>
+  <si>
+    <t>Compresor: se debiera analizar posoibiliad de gestionar el control de válvulas de seguridad, medición de espesres, entre otras (según Res. SRT 231/96) .</t>
+  </si>
+  <si>
+    <t>Se debe gestionar adecuación de botiquín con elementos básicos para actuación frente a posible lesiones (corte con hemorragias, quemadoras y fracturas).</t>
+  </si>
+  <si>
+    <t>Se debe incorporar cartelería de actuación ante siniestro otorgado por la ART.</t>
+  </si>
+  <si>
+    <t>Hernandez / Peralata / Neri</t>
+  </si>
+  <si>
+    <t>Gestionar colocación de cartelería de seguridad (Ergonomía en el trabajo, criterios para manipulación segura de carga, obligación de usar pasamano para ascenso / descenso en escalera, riesgo eléctrico, estacionamiento correcto de vehículos, sanitarios, Kit Ecológico entre otras).</t>
+  </si>
+  <si>
+    <t>Se debe gestionar colocación de cartel que indique la "Salida de Emergencia" en la instalación (puertas de salida al exterior)</t>
+  </si>
+  <si>
+    <t>Gestionar planilla de "Horarios de Trabajos y Descanso". El mismo debería estar rubricado por Ministerio de Trabajo.</t>
+  </si>
+  <si>
+    <t>En consideración del riesgo ambiental relacionado a derrames de hidrocarburos, se considera oportuno la incorporación de material absorbente para la gestión ante posible derrames. Mismo así la pala (para dispersión del material)</t>
+  </si>
+  <si>
+    <t>Sería oportuno considerar la incorporación de batea de contención en sector en donde se almacenan los HC (tachos de 20 l).</t>
+  </si>
+  <si>
+    <t>Puestas a tierras: se debiera disponer de la medición de la PAT a los fines de garantizar que la resistividad se encuentre dentro de los parámetros.</t>
+  </si>
+  <si>
+    <t>Se debe disponer en local de las FDS de los productos almacenados / comercializados. Esto debe estar en conocimiento y al alcance de los trabajadores. Se podría verifiar esto en "jdmsds.com"</t>
+  </si>
+  <si>
+    <t>Se debe tener expuesto en local los "Números de actuación ante siniestros", "Rol de Emergencias"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se debe tener expuesto la "Nómina de ART" a los fines de referenciar cobertura frente a accidentes de trabajos de Los colaboradores involucrados en el sector </t>
+  </si>
+  <si>
+    <t>Identificar capacidad portante de estantería</t>
+  </si>
+  <si>
+    <t>En depósito, se debe mejorar condiciones de orden y limpieza</t>
+  </si>
+  <si>
+    <t>Se debe definir y señalizar el punto de reunión en caso de emergencias</t>
+  </si>
+  <si>
+    <t>94e0ffa2</t>
+  </si>
+  <si>
+    <t>Daniel Ruloff / Adrian De Oliveira</t>
+  </si>
+  <si>
+    <t>Si bien se cuenta con 2 extintores, en condiciones, se deberá liberar el sector frontal (1 mts.). Considerar que frente a los mismos, NO se deben almacenar objetos.</t>
+  </si>
+  <si>
+    <t>Francisco Almeida</t>
+  </si>
+  <si>
+    <t>Se debe considerar el almacenamiento de material en estantería siguiendo el criterio de "mayor peso en parte inferior y menor peso en parte superior".</t>
+  </si>
+  <si>
+    <t>Se debe gestionar incorporación de escalera para acceso a parte superior de estantería. Se recomienda las escaleras de aluminio tipo tijera. Los mismos proporcionan estabilidad y son fáciles de transportar.</t>
+  </si>
+  <si>
+    <t>Se debe gestionar incorporación de botiquín con elementos básicos para actuación frente a posible lesiones (corte con hemorragias, quemadoras y fracturas).</t>
+  </si>
+  <si>
+    <t>Adrian / Neri</t>
+  </si>
+  <si>
+    <t>Se debe gestionar colocación de cartel que indique la "Salida de Emergencia" en la instalación.</t>
+  </si>
+  <si>
+    <t>Daniel Ruloff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En consideración del riesgo ambiental relacionado a derrames de hidrocarburos, se considera oportuno la incorporación de material absorbente para la gestión ante posible derrames. </t>
+  </si>
+  <si>
+    <t>Francisco Viera</t>
+  </si>
+  <si>
+    <t>Daniel Ruloff / Francisco Almeida / Adrian De Oliveira</t>
+  </si>
+  <si>
+    <t>Se debe identificar cajas de inspección para las puesta a tierra de la instalación eléctrica. Considerar que se debiera disponer de la medición de la PAT a los fines de garantizar que la resistividad se encuentre dentro de los parámetros.</t>
+  </si>
+  <si>
+    <t>Francisco Viera / José Peralta</t>
+  </si>
+  <si>
+    <t>Se debe disponer en local de las FDS de los productos almacenados / comercializados. Esto debe estar en conocimiento y al alcance de los trabajadores.</t>
+  </si>
+  <si>
+    <t>Almada Neri J.</t>
+  </si>
+  <si>
+    <t>Andrea Datske / Francisco Almeida</t>
+  </si>
+  <si>
+    <t>f6fc345e</t>
   </si>
 </sst>
 </file>
@@ -8633,10 +8757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2440"/>
+  <dimension ref="A1:J2476"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A2197" workbookViewId="0">
+      <selection activeCell="E2447" sqref="E2447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -88969,7 +89093,7 @@
     </row>
     <row r="2435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2435" t="str">
-        <f t="shared" ref="A2435:A2440" si="38">+CONCATENATE(B2435,TEXT(ROW()-1,"00000A"))</f>
+        <f t="shared" ref="A2435:A2476" si="38">+CONCATENATE(B2435,TEXT(ROW()-1,"00000A"))</f>
         <v>ae5f745602434A</v>
       </c>
       <c r="B2435" t="s">
@@ -89163,6 +89287,1194 @@
       </c>
       <c r="J2440" s="4">
         <v>45583</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2441" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202440A</v>
+      </c>
+      <c r="B2441" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2441" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2441" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2441" t="s">
+        <v>2698</v>
+      </c>
+      <c r="F2441" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2441" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2441">
+        <v>20</v>
+      </c>
+      <c r="I2441" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2441" s="4">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2442" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202441A</v>
+      </c>
+      <c r="B2442" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2442" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2442" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2442" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F2442" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2442" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2442">
+        <v>20</v>
+      </c>
+      <c r="I2442" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2442" s="4">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2443" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202442A</v>
+      </c>
+      <c r="B2443" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2443" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2443" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2443" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F2443" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2443" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2443">
+        <v>7</v>
+      </c>
+      <c r="I2443" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2443" s="4">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2444" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202443A</v>
+      </c>
+      <c r="B2444" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2444" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2444" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2444" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F2444" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2444" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2444">
+        <v>45</v>
+      </c>
+      <c r="I2444" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2444" s="4">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2445" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202444A</v>
+      </c>
+      <c r="B2445" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2445" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2445" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2445" t="s">
+        <v>2703</v>
+      </c>
+      <c r="F2445" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2445" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2445">
+        <v>45</v>
+      </c>
+      <c r="I2445" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2445" s="4">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2446" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202445A</v>
+      </c>
+      <c r="B2446" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2446" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2446" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2446" t="s">
+        <v>2704</v>
+      </c>
+      <c r="F2446" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2446" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2446">
+        <v>45</v>
+      </c>
+      <c r="I2446" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2446" s="4">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2447" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202446A</v>
+      </c>
+      <c r="B2447" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2447" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2447" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2447" t="s">
+        <v>2705</v>
+      </c>
+      <c r="F2447" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2447" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2447">
+        <v>15</v>
+      </c>
+      <c r="I2447" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2447" s="4">
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2448" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202447A</v>
+      </c>
+      <c r="B2448" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2448" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2448" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2448" t="s">
+        <v>2706</v>
+      </c>
+      <c r="F2448" t="s">
+        <v>2707</v>
+      </c>
+      <c r="G2448" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2448">
+        <v>30</v>
+      </c>
+      <c r="I2448" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2448" s="4">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2449" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202448A</v>
+      </c>
+      <c r="B2449" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2449" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2449" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2449" t="s">
+        <v>2708</v>
+      </c>
+      <c r="F2449" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2449" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2449">
+        <v>30</v>
+      </c>
+      <c r="I2449" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2449" s="4">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2450" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202449A</v>
+      </c>
+      <c r="B2450" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2450" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2450" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2450" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F2450" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2450" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2450">
+        <v>30</v>
+      </c>
+      <c r="I2450" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2450" s="4">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2451" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202450A</v>
+      </c>
+      <c r="B2451" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2451" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2451" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2451" t="s">
+        <v>2710</v>
+      </c>
+      <c r="F2451" t="s">
+        <v>2707</v>
+      </c>
+      <c r="G2451" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2451">
+        <v>45</v>
+      </c>
+      <c r="I2451" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2451" s="4">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2452" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202451A</v>
+      </c>
+      <c r="B2452" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2452" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2452" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2452" t="s">
+        <v>2711</v>
+      </c>
+      <c r="F2452" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2452" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2452">
+        <v>30</v>
+      </c>
+      <c r="I2452" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2452" s="4">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2453" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202452A</v>
+      </c>
+      <c r="B2453" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2453" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2453" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2453" t="s">
+        <v>2712</v>
+      </c>
+      <c r="F2453" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2453" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2453">
+        <v>90</v>
+      </c>
+      <c r="I2453" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2453" s="4">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2454" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202453A</v>
+      </c>
+      <c r="B2454" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2454" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2454" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2454" t="s">
+        <v>2713</v>
+      </c>
+      <c r="F2454" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2454" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2454">
+        <v>60</v>
+      </c>
+      <c r="I2454" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2454" s="4">
+        <v>45633</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2455" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202454A</v>
+      </c>
+      <c r="B2455" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2455" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2455" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2455" t="s">
+        <v>2714</v>
+      </c>
+      <c r="F2455" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2455" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2455">
+        <v>30</v>
+      </c>
+      <c r="I2455" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2455" s="4">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2456" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202455A</v>
+      </c>
+      <c r="B2456" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2456" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2456" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2456" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F2456" t="s">
+        <v>2707</v>
+      </c>
+      <c r="G2456" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2456">
+        <v>30</v>
+      </c>
+      <c r="I2456" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2456" s="4">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2457" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202456A</v>
+      </c>
+      <c r="B2457" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2457" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2457" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2457" t="s">
+        <v>2716</v>
+      </c>
+      <c r="F2457" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2457" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2457">
+        <v>30</v>
+      </c>
+      <c r="I2457" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2457" s="4">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2458" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202457A</v>
+      </c>
+      <c r="B2458" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2458" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2458" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2458" t="s">
+        <v>2717</v>
+      </c>
+      <c r="F2458" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2458" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2458">
+        <v>30</v>
+      </c>
+      <c r="I2458" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2458" s="4">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2459" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202458A</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2459" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2459" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2459" t="s">
+        <v>2718</v>
+      </c>
+      <c r="F2459" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2459" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H2459">
+        <v>7</v>
+      </c>
+      <c r="I2459" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2459" s="4">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2460" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202459A</v>
+      </c>
+      <c r="B2460" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2460" s="4">
+        <v>45573</v>
+      </c>
+      <c r="D2460" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2460" t="s">
+        <v>2719</v>
+      </c>
+      <c r="F2460" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G2460" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2460">
+        <v>30</v>
+      </c>
+      <c r="I2460" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2460" s="4">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2461" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202460A</v>
+      </c>
+      <c r="B2461" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2461" s="4">
+        <v>45441</v>
+      </c>
+      <c r="D2461" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2461" t="s">
+        <v>2698</v>
+      </c>
+      <c r="F2461" t="s">
+        <v>2721</v>
+      </c>
+      <c r="G2461" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2461">
+        <v>30</v>
+      </c>
+      <c r="I2461" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2461" s="4">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2462" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202461A</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2462" s="4">
+        <v>45441</v>
+      </c>
+      <c r="D2462" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2462" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F2462" t="s">
+        <v>2723</v>
+      </c>
+      <c r="G2462" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2462">
+        <v>30</v>
+      </c>
+      <c r="I2462" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2462" s="4">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2463" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202462A</v>
+      </c>
+      <c r="B2463" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2463" s="4">
+        <v>45441</v>
+      </c>
+      <c r="D2463" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2463" t="s">
+        <v>2724</v>
+      </c>
+      <c r="F2463" t="s">
+        <v>2723</v>
+      </c>
+      <c r="G2463" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2463">
+        <v>30</v>
+      </c>
+      <c r="I2463" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2463" s="4">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2464" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202463A</v>
+      </c>
+      <c r="B2464" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2464" s="4">
+        <v>45441</v>
+      </c>
+      <c r="D2464" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2464" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F2464" t="s">
+        <v>2721</v>
+      </c>
+      <c r="G2464" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2464">
+        <v>30</v>
+      </c>
+      <c r="I2464" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2464" s="4">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2465" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202464A</v>
+      </c>
+      <c r="B2465" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2465" s="4">
+        <v>45441</v>
+      </c>
+      <c r="D2465" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2465" t="s">
+        <v>2726</v>
+      </c>
+      <c r="F2465" t="s">
+        <v>2721</v>
+      </c>
+      <c r="G2465" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2465">
+        <v>30</v>
+      </c>
+      <c r="I2465" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2465" s="4">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2466" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202465A</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2466" s="4">
+        <v>45441</v>
+      </c>
+      <c r="D2466" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2466" t="s">
+        <v>2706</v>
+      </c>
+      <c r="F2466" t="s">
+        <v>2727</v>
+      </c>
+      <c r="G2466" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2466">
+        <v>30</v>
+      </c>
+      <c r="I2466" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2466" s="4">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2467" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202466A</v>
+      </c>
+      <c r="B2467" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2467" s="4">
+        <v>45441</v>
+      </c>
+      <c r="D2467" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2467" t="s">
+        <v>2708</v>
+      </c>
+      <c r="F2467" t="s">
+        <v>2727</v>
+      </c>
+      <c r="G2467" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2467">
+        <v>30</v>
+      </c>
+      <c r="I2467" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2467" s="4">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2468" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202467A</v>
+      </c>
+      <c r="B2468" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2468" s="4">
+        <v>45441</v>
+      </c>
+      <c r="D2468" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2468" t="s">
+        <v>2728</v>
+      </c>
+      <c r="F2468" t="s">
+        <v>2729</v>
+      </c>
+      <c r="G2468" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2468">
+        <v>30</v>
+      </c>
+      <c r="I2468" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2468" s="4">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2469" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202468A</v>
+      </c>
+      <c r="B2469" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2469" s="4">
+        <v>45441</v>
+      </c>
+      <c r="D2469" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2469" t="s">
+        <v>2710</v>
+      </c>
+      <c r="F2469" t="s">
+        <v>2727</v>
+      </c>
+      <c r="G2469" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2469">
+        <v>45</v>
+      </c>
+      <c r="I2469" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2469" s="4">
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2470" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202469A</v>
+      </c>
+      <c r="B2470" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2470" s="4">
+        <v>45441</v>
+      </c>
+      <c r="D2470" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2470" t="s">
+        <v>2730</v>
+      </c>
+      <c r="F2470" t="s">
+        <v>2731</v>
+      </c>
+      <c r="G2470" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2470">
+        <v>30</v>
+      </c>
+      <c r="I2470" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2470" s="4">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2471" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202470A</v>
+      </c>
+      <c r="B2471" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2471" s="4">
+        <v>45441</v>
+      </c>
+      <c r="D2471" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2471" t="s">
+        <v>2712</v>
+      </c>
+      <c r="F2471" t="s">
+        <v>2732</v>
+      </c>
+      <c r="G2471" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2471">
+        <v>90</v>
+      </c>
+      <c r="I2471" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2471" s="4">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2472" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202471A</v>
+      </c>
+      <c r="B2472" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2472" s="4">
+        <v>45441</v>
+      </c>
+      <c r="D2472" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2472" t="s">
+        <v>2733</v>
+      </c>
+      <c r="F2472" t="s">
+        <v>2734</v>
+      </c>
+      <c r="G2472" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2472">
+        <v>60</v>
+      </c>
+      <c r="I2472" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2472" s="4">
+        <v>45501</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2473" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202472A</v>
+      </c>
+      <c r="B2473" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2473" s="4">
+        <v>45441</v>
+      </c>
+      <c r="D2473" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2473" t="s">
+        <v>2735</v>
+      </c>
+      <c r="F2473" t="s">
+        <v>2723</v>
+      </c>
+      <c r="G2473" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2473">
+        <v>30</v>
+      </c>
+      <c r="I2473" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2473" s="4">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2474" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202473A</v>
+      </c>
+      <c r="B2474" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2474" s="4">
+        <v>45441</v>
+      </c>
+      <c r="D2474" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2474" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F2474" t="s">
+        <v>2736</v>
+      </c>
+      <c r="G2474" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2474">
+        <v>30</v>
+      </c>
+      <c r="I2474" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2474" s="4">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2475" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202474A</v>
+      </c>
+      <c r="B2475" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2475" s="4">
+        <v>45441</v>
+      </c>
+      <c r="D2475" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2475" t="s">
+        <v>2716</v>
+      </c>
+      <c r="F2475" t="s">
+        <v>2737</v>
+      </c>
+      <c r="G2475" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2475">
+        <v>30</v>
+      </c>
+      <c r="I2475" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2475" s="4">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2476" t="str">
+        <f t="shared" si="38"/>
+        <v>94e0ffa202475A</v>
+      </c>
+      <c r="B2476" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2476" s="4">
+        <v>45441</v>
+      </c>
+      <c r="D2476" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2476" t="s">
+        <v>2717</v>
+      </c>
+      <c r="F2476" t="s">
+        <v>2723</v>
+      </c>
+      <c r="G2476" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2476">
+        <v>30</v>
+      </c>
+      <c r="I2476" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2476" s="4">
+        <v>45471</v>
       </c>
     </row>
   </sheetData>
